--- a/media/output/result/bpic2015_5_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/bpic2015_5_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -1230,10 +1230,10 @@
         <v>193</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.7253886010362695</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.8408408408408409</v>
       </c>
     </row>
     <row r="29">
@@ -1259,10 +1259,10 @@
         <v>193</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.7253886010362695</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.8408408408408409</v>
       </c>
     </row>
     <row r="30">
@@ -1288,10 +1288,10 @@
         <v>193</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.7253886010362695</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.8408408408408409</v>
       </c>
     </row>
     <row r="31">
@@ -1317,10 +1317,10 @@
         <v>193</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1329,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.7253886010362695</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.8408408408408409</v>
       </c>
     </row>
     <row r="32">
@@ -1346,10 +1346,10 @@
         <v>193</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.7253886010362695</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.8408408408408409</v>
       </c>
     </row>
     <row r="33">
@@ -1375,10 +1375,10 @@
         <v>192</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.7239583333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.8398791540785498</v>
       </c>
     </row>
     <row r="34">
@@ -1404,10 +1404,10 @@
         <v>192</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.7239583333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.8398791540785498</v>
       </c>
     </row>
     <row r="35">
@@ -1433,10 +1433,10 @@
         <v>192</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.7239583333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.8398791540785498</v>
       </c>
     </row>
     <row r="36">
@@ -1462,10 +1462,10 @@
         <v>189</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.8369230769230769</v>
       </c>
     </row>
     <row r="37">
@@ -1491,10 +1491,10 @@
         <v>189</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.8369230769230769</v>
       </c>
     </row>
     <row r="38">
@@ -1520,10 +1520,10 @@
         <v>188</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.7180851063829787</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.8359133126934984</v>
       </c>
     </row>
     <row r="39">
@@ -1549,10 +1549,10 @@
         <v>188</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.7180851063829787</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.8359133126934984</v>
       </c>
     </row>
     <row r="40">
@@ -1578,10 +1578,10 @@
         <v>188</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.7180851063829787</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8359133126934984</v>
       </c>
     </row>
     <row r="41">
@@ -1607,10 +1607,10 @@
         <v>185</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.7135135135135136</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.832807570977918</v>
       </c>
     </row>
   </sheetData>
